--- a/data/trans_bre/IP42B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP42B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-44,85%</t>
+          <t>-40,13%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,16; 12,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 15,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 4,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 69,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-35,98; 19,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,92; 367,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,49; 91,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,18%</t>
+          <t>-3,94%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 16,93</t>
+          <t>-4,3; 13,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 12,51</t>
+          <t>-4,23; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 6,19</t>
+          <t>-7,25; 7,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 237,91</t>
+          <t>-28,68; 293,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,45; 168,09</t>
+          <t>-65,08; 172,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>137,26%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 13,69</t>
+          <t>-14,15; 11,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 16,7</t>
+          <t>-17,16; 11,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 6,71</t>
+          <t>-1,66; 13,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 825,06</t>
+          <t>-80,59; 304,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 238,79</t>
+          <t>-55,13; 88,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 154,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>137,26%</t>
+          <t>62,51%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 13,6</t>
+          <t>-10,32; 11,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 10,89</t>
+          <t>-13,06; 11,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 13,98</t>
+          <t>-3,89; 13,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,93; 386,95</t>
+          <t>-77,62; 257,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 68,98</t>
+          <t>-68,02; 178,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,24; —</t>
+          <t>-52,92; 657,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>12,51%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 11,04</t>
+          <t>-3,07; 6,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 10,89</t>
+          <t>-4,12; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 13,25</t>
+          <t>-3,38; 4,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-73,98; 212,21</t>
+          <t>-34,47; 136,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 155,69</t>
+          <t>-26,22; 78,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 556,04</t>
+          <t>-34,48; 79,35</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,55%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 7,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 7,97</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 5,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-34,37; 165,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-26,0; 75,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-33,41; 92,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
